--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BMRESP-passenger" sheetId="2" r:id="rId2"/>
     <sheet name="BMRESP-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -56,16 +56,16 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>in Canada for any vehicle type.</t>
+    <t>in the United States for any vehicle type.</t>
   </si>
   <si>
-    <t xml:space="preserve">Howver, there are EV sales mandates at the provincial level. </t>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,20 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,52 +432,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -580,7 +577,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1242,29 +1239,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1371,7 +1366,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1481,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2033,10 +2028,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BMRESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C62F642C-6558-9942-8EF2-4E0F27853126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CD767F-4C32-4D5F-9FF3-A4C5646B14ED}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="23960" windowHeight="12100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BMRESP-passenger" sheetId="2" r:id="rId2"/>
     <sheet name="BMRESP-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -29,13 +41,22 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
+    <t>Transport Canada</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/transport-canada/news/2021/06/building-a-green-economy-government-of-canada-to-require-100-of-car-and-passenger-truck-sales-be-zero-emission-by-2035-in-canada.html</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>There is no minimum required EV sales percentage</t>
+    <t>Canada has a 2035 sales target of 100% for LDVs and is working on interim 2025 and 2030 targets.</t>
+  </si>
+  <si>
+    <t>There are no targets for any type of vehicle other than passenger LDVs.</t>
+  </si>
+  <si>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
   <si>
     <t>LDVs</t>
@@ -55,18 +76,12 @@
   <si>
     <t>motorbikes</t>
   </si>
-  <si>
-    <t>in the United States for any vehicle type.</t>
-  </si>
-  <si>
-    <t>Sales Percentage (dimensionless)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +93,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,17 +123,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -202,6 +228,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,19 +472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,29 +494,828 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>11</v>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4B851AA8-A5AB-4CC6-8302-5732D7F33C68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="32.1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -462,14 +1323,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="32.1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -577,9 +1438,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -687,9 +1548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -797,9 +1658,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -907,9 +1768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1017,9 +1878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1127,9 +1988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1242,791 +2103,286 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-      <c r="Q1">
-        <v>2031</v>
-      </c>
-      <c r="R1">
-        <v>2032</v>
-      </c>
-      <c r="S1">
-        <v>2033</v>
-      </c>
-      <c r="T1">
-        <v>2034</v>
-      </c>
-      <c r="U1">
-        <v>2035</v>
-      </c>
-      <c r="V1">
-        <v>2036</v>
-      </c>
-      <c r="W1">
-        <v>2037</v>
-      </c>
-      <c r="X1">
-        <v>2038</v>
-      </c>
-      <c r="Y1">
-        <v>2039</v>
-      </c>
-      <c r="Z1">
-        <v>2040</v>
-      </c>
-      <c r="AA1">
-        <v>2041</v>
-      </c>
-      <c r="AB1">
-        <v>2042</v>
-      </c>
-      <c r="AC1">
-        <v>2043</v>
-      </c>
-      <c r="AD1">
-        <v>2044</v>
-      </c>
-      <c r="AE1">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC57AA9-FE99-4D32-9F73-D1F76BA94D05}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{826948F8-5367-4B4F-ACEC-BD33460830F6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC4D461-9145-416A-8FEC-62184505883F}"/>
 </file>
--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24812"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BMRESP/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C62F642C-6558-9942-8EF2-4E0F27853126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CD767F-4C32-4D5F-9FF3-A4C5646B14ED}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="23960" windowHeight="12100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BMRESP-passenger" sheetId="2" r:id="rId2"/>
     <sheet name="BMRESP-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -29,13 +41,22 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
+    <t>Transport Canada</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/transport-canada/news/2021/06/building-a-green-economy-government-of-canada-to-require-100-of-car-and-passenger-truck-sales-be-zero-emission-by-2035-in-canada.html</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>There is no minimum required EV sales percentage</t>
+    <t>Canada has a 2035 sales target of 100% for LDVs and is working on interim 2025 and 2030 targets.</t>
+  </si>
+  <si>
+    <t>There are no targets for any type of vehicle other than passenger LDVs.</t>
+  </si>
+  <si>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
   <si>
     <t>LDVs</t>
@@ -55,18 +76,12 @@
   <si>
     <t>motorbikes</t>
   </si>
-  <si>
-    <t>in Canada for any vehicle type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howver, there are EV sales mandates at the provincial level. </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +93,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +123,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,9 +228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -428,52 +494,844 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4B851AA8-A5AB-4CC6-8302-5732D7F33C68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="32.1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="32.1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -582,7 +1440,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -692,7 +1550,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -802,7 +1660,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -912,7 +1770,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1022,7 +1880,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1132,7 +1990,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1242,801 +2100,289 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36">
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-      <c r="Q1">
-        <v>2031</v>
-      </c>
-      <c r="R1">
-        <v>2032</v>
-      </c>
-      <c r="S1">
-        <v>2033</v>
-      </c>
-      <c r="T1">
-        <v>2034</v>
-      </c>
-      <c r="U1">
-        <v>2035</v>
-      </c>
-      <c r="V1">
-        <v>2036</v>
-      </c>
-      <c r="W1">
-        <v>2037</v>
-      </c>
-      <c r="X1">
-        <v>2038</v>
-      </c>
-      <c r="Y1">
-        <v>2039</v>
-      </c>
-      <c r="Z1">
-        <v>2040</v>
-      </c>
-      <c r="AA1">
-        <v>2041</v>
-      </c>
-      <c r="AB1">
-        <v>2042</v>
-      </c>
-      <c r="AC1">
-        <v>2043</v>
-      </c>
-      <c r="AD1">
-        <v>2044</v>
-      </c>
-      <c r="AE1">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC57AA9-FE99-4D32-9F73-D1F76BA94D05}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{826948F8-5367-4B4F-ACEC-BD33460830F6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC4D461-9145-416A-8FEC-62184505883F}"/>
 </file>
--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -2104,8 +2104,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -2129,6 +2129,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2217,6 +2220,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2362,6 +2382,9 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -2376,7 +2399,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC57AA9-FE99-4D32-9F73-D1F76BA94D05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2AC4E56-0EE1-4934-B458-6486F445BA55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BMRESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C62F642C-6558-9942-8EF2-4E0F27853126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CD767F-4C32-4D5F-9FF3-A4C5646B14ED}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{C62F642C-6558-9942-8EF2-4E0F27853126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB2E805-2952-4AF9-97A6-6B5E26A805DD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="23960" windowHeight="12100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Canada has a 2035 sales target of 100% for LDVs and is working on interim 2025 and 2030 targets.</t>
   </si>
   <si>
     <t>There are no targets for any type of vehicle other than passenger LDVs.</t>
@@ -76,12 +73,24 @@
   <si>
     <t>motorbikes</t>
   </si>
+  <si>
+    <t>Canada has proposed a 2035 sales target of 100% for LDVs and is working on interim 2025 and 2030 targets.  The regulations are expected to be finalized by the end of 2023.</t>
+  </si>
+  <si>
+    <t>https://www.pembina.org/blog/electric-vehicle-sales-regulation-explained</t>
+  </si>
+  <si>
+    <t>Pembin Institute</t>
+  </si>
+  <si>
+    <t>Regulations for EV truck sales has been commited by the Government of Canada.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,24 +503,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -530,18 +554,18 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.1">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -649,559 +673,559 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1321,16 +1345,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.1">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -1438,559 +1462,559 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2104,6 +2128,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -2369,43 +2422,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2AC4E56-0EE1-4934-B458-6486F445BA55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC4D461-9145-416A-8FEC-62184505883F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{826948F8-5367-4B4F-ACEC-BD33460830F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{826948F8-5367-4B4F-ACEC-BD33460830F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC4D461-9145-416A-8FEC-62184505883F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2AC4E56-0EE1-4934-B458-6486F445BA55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>